--- a/Labs/Lab1/pythonTest_merged.xlsx
+++ b/Labs/Lab1/pythonTest_merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Time (predicted)</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Pos</t>
+  </si>
+  <si>
+    <t>Model Data</t>
+  </si>
+  <si>
+    <t>Experimental Data</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -584,27 +599,729 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Data vs Experimental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Predicted</c:v>
+            <c:v>Model data</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>pythonTest!$C$2:$C$34</c:f>
+              <c:f>pythonTest!$A$3:$A$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pythonTest!$B$3:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>-1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.253</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.308</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.627</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.748</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.012</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.0229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.034</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.0669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.0780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.089</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.111</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.1220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.133</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.1439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.155</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.1659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.177</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.1990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Experimental data</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pythonTest!$C$3:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
@@ -709,8 +1426,116 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pythonTest!$D$3:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4639359500000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.7354310139999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1000692608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1347086203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16742357090000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20013852160000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.22900465449999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.25402196970000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.27711487600000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.30020778240000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.32330068870000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35409123050000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.38295736339999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.40220145200000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.42914317610000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.45800930899999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.47917780650000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.50611953050000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.53691007229999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.56577620520000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.5927179293</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.61773524449999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.65237460400000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.68124073689999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.70625805210000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.72357773179999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.75821709130000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.79670526860000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.82172258379999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.8371178547</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.86213516990000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.88522807619999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -720,44 +1545,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="208255232"/>
-        <c:axId val="209780096"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="208255232"/>
+        <c:axId val="75054464"/>
+        <c:axId val="75052544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75054464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209780096"/>
+        <c:crossAx val="75052544"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="209780096"/>
+        <c:axId val="75052544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Position (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208255232"/>
+        <c:crossAx val="75054464"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -777,234 +1635,24 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>pythonTest!$C$2:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3334919650000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6669839310000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.100004759</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13333967860000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.166663494</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19999841369999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26666825300000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.30000317259999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3333380923</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.36667301190000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39999682739999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.43333174699999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.46666666670000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50000158630000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.53333650600000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.56667142559999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.60000634529999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63333016070000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.66666508030000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.73333491969999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76666983929999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.80000475900000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.83332857439999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.86666349399999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.8999984137</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.93333333330000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.96666825300000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0000031730000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.0333380919999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.0666619079999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="193194624"/>
-        <c:axId val="193196416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="193194624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193196416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="193196416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193194624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:effectLst>
-      <a:glow rad="127000">
-        <a:schemeClr val="accent1">
-          <a:alpha val="27000"/>
-        </a:schemeClr>
-      </a:glow>
-    </a:effectLst>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5" title="Model Data vs Experimental Data"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1014,36 +1662,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4" title="Actual"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1339,1108 +1957,1116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.01</v>
-      </c>
-      <c r="B2">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="B3">
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>3.3334919650000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>-3.4639359500000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="B4">
-        <v>-3.3000000000000002E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>6.6669839310000006E-2</v>
+        <v>3.3334919650000003E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>-6.7354310139999998E-2</v>
+        <v>-3.4639359500000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="B5">
-        <v>-4.3999999999999997E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>0.100004759</v>
+        <v>6.6669839310000006E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.1000692608</v>
+        <v>-6.7354310139999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="B6">
-        <v>-5.5E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.13333967860000001</v>
+        <v>0.100004759</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.1347086203</v>
+        <v>-0.1000692608</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="B7">
-        <v>-6.6000000000000003E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>0.166663494</v>
+        <v>0.13333967860000001</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.16742357090000001</v>
+        <v>-0.1347086203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="B8">
-        <v>-7.6999999999999999E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>0.19999841369999999</v>
+        <v>0.166663494</v>
       </c>
       <c r="D8" s="2">
-        <v>-0.20013852160000001</v>
+        <v>-0.16742357090000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
-        <v>-8.7999999999999995E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.2333333333</v>
+        <v>0.19999841369999999</v>
       </c>
       <c r="D9" s="2">
-        <v>-0.22900465449999999</v>
+        <v>-0.20013852160000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="B10">
-        <v>-9.9000000000000005E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.26666825300000002</v>
+        <v>0.2333333333</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.25402196970000002</v>
+        <v>-0.22900465449999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="B11">
-        <v>-0.11</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>0.30000317259999998</v>
+        <v>0.26666825300000002</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.27711487600000001</v>
+        <v>-0.25402196970000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="B12">
-        <v>-0.121</v>
+        <v>-0.11</v>
       </c>
       <c r="C12" s="1">
-        <v>0.3333380923</v>
+        <v>0.30000317259999998</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.30020778240000001</v>
+        <v>-0.27711487600000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="B13">
-        <v>-0.13200000000000001</v>
+        <v>-0.121</v>
       </c>
       <c r="C13" s="1">
-        <v>0.36667301190000001</v>
+        <v>0.3333380923</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.32330068870000001</v>
+        <v>-0.30020778240000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="B14">
-        <v>-0.14299999999999999</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>0.39999682739999998</v>
+        <v>0.36667301190000001</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.35409123050000002</v>
+        <v>-0.32330068870000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="B15">
-        <v>-0.154</v>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>0.43333174699999999</v>
+        <v>0.39999682739999998</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.38295736339999997</v>
+        <v>-0.35409123050000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B16">
-        <v>-0.16500000000000001</v>
+        <v>-0.154</v>
       </c>
       <c r="C16" s="1">
-        <v>0.46666666670000001</v>
+        <v>0.43333174699999999</v>
       </c>
       <c r="D16" s="2">
-        <v>-0.40220145200000001</v>
+        <v>-0.38295736339999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="B17">
-        <v>-0.17599999999999999</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>0.50000158630000002</v>
+        <v>0.46666666670000001</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.42914317610000002</v>
+        <v>-0.40220145200000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="B18">
-        <v>-0.187</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>0.53333650600000004</v>
+        <v>0.50000158630000002</v>
       </c>
       <c r="D18" s="2">
-        <v>-0.45800930899999998</v>
+        <v>-0.42914317610000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="B19">
-        <v>-0.19800000000000001</v>
+        <v>-0.187</v>
       </c>
       <c r="C19" s="1">
-        <v>0.56667142559999994</v>
+        <v>0.53333650600000004</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.47917780650000003</v>
+        <v>-0.45800930899999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="B20">
-        <v>-0.20899999999999999</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>0.60000634529999997</v>
+        <v>0.56667142559999994</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.50611953050000003</v>
+        <v>-0.47917780650000003</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="B21">
-        <v>-0.22</v>
+        <v>-0.20899999999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>0.63333016070000003</v>
+        <v>0.60000634529999997</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.53691007229999999</v>
+        <v>-0.50611953050000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="B22">
-        <v>-0.23100000000000001</v>
+        <v>-0.22</v>
       </c>
       <c r="C22" s="1">
-        <v>0.66666508030000005</v>
+        <v>0.63333016070000003</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.56577620520000005</v>
+        <v>-0.53691007229999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="B23">
-        <v>-0.24199999999999999</v>
+        <v>-0.23100000000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>0.7</v>
+        <v>0.66666508030000005</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.5927179293</v>
+        <v>-0.56577620520000005</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="B24">
-        <v>-0.253</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>0.73333491969999998</v>
+        <v>0.7</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.61773524449999995</v>
+        <v>-0.5927179293</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="B25">
-        <v>-0.26400000000000001</v>
+        <v>-0.253</v>
       </c>
       <c r="C25" s="1">
-        <v>0.76666983929999999</v>
+        <v>0.73333491969999998</v>
       </c>
       <c r="D25" s="2">
-        <v>-0.65237460400000002</v>
+        <v>-0.61773524449999995</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="B26">
-        <v>-0.27500000000000002</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>0.80000475900000001</v>
+        <v>0.76666983929999999</v>
       </c>
       <c r="D26" s="2">
-        <v>-0.68124073689999998</v>
+        <v>-0.65237460400000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="B27">
-        <v>-0.28599999999999998</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="C27" s="1">
-        <v>0.83332857439999997</v>
+        <v>0.80000475900000001</v>
       </c>
       <c r="D27" s="2">
-        <v>-0.70625805210000003</v>
+        <v>-0.68124073689999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="B28">
-        <v>-0.29699999999999999</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="C28" s="1">
-        <v>0.86666349399999998</v>
+        <v>0.83332857439999997</v>
       </c>
       <c r="D28" s="2">
-        <v>-0.72357773179999996</v>
+        <v>-0.70625805210000003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="B29">
-        <v>-0.308</v>
+        <v>-0.29699999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>0.8999984137</v>
+        <v>0.86666349399999998</v>
       </c>
       <c r="D29" s="2">
-        <v>-0.75821709130000003</v>
+        <v>-0.72357773179999996</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B30">
-        <v>-0.31900000000000001</v>
+        <v>-0.308</v>
       </c>
       <c r="C30" s="1">
-        <v>0.93333333330000001</v>
+        <v>0.8999984137</v>
       </c>
       <c r="D30" s="2">
-        <v>-0.79670526860000002</v>
+        <v>-0.75821709130000003</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B31">
-        <v>-0.33</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>0.96666825300000003</v>
+        <v>0.93333333330000001</v>
       </c>
       <c r="D31" s="2">
-        <v>-0.82172258379999996</v>
+        <v>-0.79670526860000002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="B32">
-        <v>-0.34100000000000003</v>
+        <v>-0.33</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0000031730000001</v>
+        <v>0.96666825300000003</v>
       </c>
       <c r="D32" s="2">
-        <v>-0.8371178547</v>
+        <v>-0.82172258379999996</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="B33">
-        <v>-0.35199999999999998</v>
+        <v>-0.34100000000000003</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0333380919999999</v>
+        <v>1.0000031730000001</v>
       </c>
       <c r="D33" s="2">
-        <v>-0.86213516990000005</v>
+        <v>-0.8371178547</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="B34">
-        <v>-0.36299999999999999</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0666619079999999</v>
+        <v>1.0333380919999999</v>
       </c>
       <c r="D34" s="2">
-        <v>-0.88522807619999999</v>
+        <v>-0.86213516990000005</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="B35">
-        <v>-0.374</v>
+        <v>-0.36299999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.0666619079999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.88522807619999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="B36">
-        <v>-0.38500000000000001</v>
+        <v>-0.374</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="B37">
-        <v>-0.39600000000000002</v>
+        <v>-0.38500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="B38">
-        <v>-0.40699999999999997</v>
+        <v>-0.39600000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="B39">
-        <v>-0.41799999999999998</v>
+        <v>-0.40699999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="B40">
-        <v>-0.42899999999999999</v>
+        <v>-0.41799999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="B41">
-        <v>-0.44</v>
+        <v>-0.42899999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="B42">
-        <v>-0.45100000000000001</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="B43">
-        <v>-0.46200000000000002</v>
+        <v>-0.45100000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="B44">
-        <v>-0.47299999999999998</v>
+        <v>-0.46200000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="B45">
-        <v>-0.48399999999999999</v>
+        <v>-0.47299999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="B46">
-        <v>-0.495</v>
+        <v>-0.48399999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="B47">
-        <v>-0.50600000000000001</v>
+        <v>-0.495</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="B48">
-        <v>-0.51700000000000002</v>
+        <v>-0.50600000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="B49">
-        <v>-0.52800000000000002</v>
+        <v>-0.51700000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="B50">
-        <v>-0.53900000000000003</v>
+        <v>-0.52800000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="B51">
-        <v>-0.55000000000000004</v>
+        <v>-0.53900000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="B52">
-        <v>-0.56100000000000005</v>
+        <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="B53">
-        <v>-0.57199999999999995</v>
+        <v>-0.56100000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="B54">
-        <v>-0.58299999999999996</v>
+        <v>-0.57199999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="B55">
-        <v>-0.59399999999999997</v>
+        <v>-0.58299999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="B56">
-        <v>-0.60499999999999998</v>
+        <v>-0.59399999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B57">
-        <v>-0.61599999999999999</v>
+        <v>-0.60499999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B58">
-        <v>-0.627</v>
+        <v>-0.61599999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B59">
-        <v>-0.63800000000000001</v>
+        <v>-0.627</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B60">
-        <v>-0.64900000000000002</v>
+        <v>-0.63800000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="B61">
-        <v>-0.66</v>
+        <v>-0.64900000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="B62">
-        <v>-0.67100000000000004</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="B63">
-        <v>-0.68200000000000005</v>
+        <v>-0.67100000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="B64">
-        <v>-0.69299999999999995</v>
+        <v>-0.68200000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="B65">
-        <v>-0.70399999999999996</v>
+        <v>-0.69299999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="B66">
-        <v>-0.71499999999999997</v>
+        <v>-0.70399999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="B67">
-        <v>-0.72599999999999998</v>
+        <v>-0.71499999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="B68">
-        <v>-0.73699999999999999</v>
+        <v>-0.72599999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="B69">
-        <v>-0.748</v>
+        <v>-0.73699999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="B70">
-        <v>-0.75900000000000001</v>
+        <v>-0.748</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="B71">
-        <v>-0.77</v>
+        <v>-0.75900000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="B72">
-        <v>-0.78100000000000003</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="B73">
-        <v>-0.79200000000000004</v>
+        <v>-0.78100000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="B74">
-        <v>-0.80300000000000005</v>
+        <v>-0.79200000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="B75">
-        <v>-0.81399999999999995</v>
+        <v>-0.80300000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="B76">
-        <v>-0.82499999999999996</v>
+        <v>-0.81399999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="B77">
-        <v>-0.83599999999999997</v>
+        <v>-0.82499999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="B78">
-        <v>-0.84699999999999998</v>
+        <v>-0.83599999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="B79">
-        <v>-0.85799999999999998</v>
+        <v>-0.84699999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="B80">
-        <v>-0.86899999999999999</v>
+        <v>-0.85799999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="B81">
-        <v>-0.88</v>
+        <v>-0.86899999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="B82">
-        <v>-0.89100000000000001</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="B83">
-        <v>-0.90200000000000002</v>
+        <v>-0.89100000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="B84">
-        <v>-0.91300000000000003</v>
+        <v>-0.90200000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="B85">
-        <v>-0.92400000000000004</v>
+        <v>-0.91300000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="B86">
-        <v>-0.93500000000000005</v>
+        <v>-0.92400000000000004</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="B87">
-        <v>-0.94599999999999995</v>
+        <v>-0.93500000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="B88">
-        <v>-0.95699999999999996</v>
+        <v>-0.94599999999999995</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="B89">
-        <v>-0.96799999999999997</v>
+        <v>-0.95699999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="B90">
-        <v>-0.97899999999999998</v>
+        <v>-0.96799999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="B91">
-        <v>-0.99</v>
+        <v>-0.97899999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="B92">
-        <v>-1.0009999999999999</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="B93">
-        <v>-1.012</v>
+        <v>-1.0009999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="B94">
-        <v>-1.0229999999999999</v>
+        <v>-1.012</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="B95">
-        <v>-1.034</v>
+        <v>-1.0229999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="B96">
-        <v>-1.0449999999999999</v>
+        <v>-1.034</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="B97">
-        <v>-1.056</v>
+        <v>-1.0449999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="B98">
-        <v>-1.0669999999999999</v>
+        <v>-1.056</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="B99">
-        <v>-1.0780000000000001</v>
+        <v>-1.0669999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="B100">
-        <v>-1.089</v>
+        <v>-1.0780000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="B101">
-        <v>-1.1000000000000001</v>
+        <v>-1.089</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="B102">
-        <v>-1.111</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="B103">
-        <v>-1.1220000000000001</v>
+        <v>-1.111</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="B104">
-        <v>-1.133</v>
+        <v>-1.1220000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="B105">
-        <v>-1.1439999999999999</v>
+        <v>-1.133</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="B106">
-        <v>-1.155</v>
+        <v>-1.1439999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="B107">
-        <v>-1.1659999999999999</v>
+        <v>-1.155</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="B108">
-        <v>-1.177</v>
+        <v>-1.1659999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="B109">
-        <v>-1.1879999999999999</v>
+        <v>-1.177</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="B110">
-        <v>-1.1990000000000001</v>
+        <v>-1.1879999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="B111">
+        <v>-1.1990000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>-1.21</v>
       </c>
     </row>
